--- a/BD-GRP21.xlsx
+++ b/BD-GRP21.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="195">
   <si>
     <t>pk_idconfiguracionEstacion</t>
   </si>
@@ -239,6 +239,21 @@
   </si>
   <si>
     <t>D1</t>
+  </si>
+  <si>
+    <t>NumeroDecimalesV</t>
+  </si>
+  <si>
+    <t>Decimales en volumen</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>NumeroDecimalesD</t>
+  </si>
+  <si>
+    <t>Decimales en dinero</t>
   </si>
   <si>
     <t>Pk-IdConfiguracion</t>
@@ -732,19 +747,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9030612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.62244897959184"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.7857142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.0204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.4540816326531"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1224,6 +1240,40 @@
         <v>9</v>
       </c>
       <c r="F24" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1251,23 +1301,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -1294,14 +1344,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.6479591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.9336734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.6938775510204"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1321,10 +1372,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D2" s="5" t="n">
         <v>1</v>
@@ -1338,10 +1389,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D3" s="5" t="n">
         <v>2</v>
@@ -1355,13 +1406,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>9</v>
@@ -1372,13 +1423,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>9</v>
@@ -1389,10 +1440,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>130</v>
@@ -1406,13 +1457,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>9</v>
@@ -1423,10 +1474,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>5848</v>
@@ -1440,13 +1491,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>9</v>
@@ -1457,13 +1508,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>9</v>
@@ -1474,10 +1525,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
@@ -1491,10 +1542,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>1000</v>
@@ -1508,10 +1559,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>11111</v>
@@ -1525,10 +1576,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>11111</v>
@@ -1542,10 +1593,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>10000</v>
@@ -1559,13 +1610,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>9</v>
@@ -1576,10 +1627,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>123456</v>
@@ -1593,10 +1644,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>21</v>
@@ -1629,12 +1680,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.2755102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1645,7 +1697,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1653,7 +1705,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1661,7 +1713,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1688,12 +1740,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.9540816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>40</v>
@@ -1704,7 +1757,7 @@
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>40</v>
@@ -1715,7 +1768,7 @@
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>40</v>
@@ -1726,7 +1779,7 @@
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>40</v>
@@ -1737,7 +1790,7 @@
     </row>
     <row r="5" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>40</v>
@@ -1748,10 +1801,10 @@
     </row>
     <row r="6" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>10</v>
@@ -1759,7 +1812,7 @@
     </row>
     <row r="7" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>40</v>
@@ -1770,7 +1823,7 @@
     </row>
     <row r="8" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>40</v>
@@ -1781,7 +1834,7 @@
     </row>
     <row r="9" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>40</v>
@@ -1814,17 +1867,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4948979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1832,10 +1886,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1843,10 +1897,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1854,10 +1908,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1865,10 +1919,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1876,10 +1930,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1887,10 +1941,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1898,10 +1952,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1909,10 +1963,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1920,10 +1974,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1931,10 +1985,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1942,10 +1996,10 @@
         <v>100</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1972,12 +2026,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.2755102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>40</v>
@@ -1994,13 +2049,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2027,17 +2082,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.7142857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7040816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9438775510204"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
@@ -2048,10 +2104,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2059,10 +2115,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2070,10 +2126,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2081,10 +2137,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2092,10 +2148,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2103,10 +2159,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2114,10 +2170,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2125,10 +2181,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2155,98 +2211,98 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2274,8 +2330,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/BD-GRP21.xlsx
+++ b/BD-GRP21.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="192">
   <si>
     <t>pk_idconfiguracionEstacion</t>
   </si>
@@ -145,21 +145,15 @@
     <t>Final Libre del Recibo 3</t>
   </si>
   <si>
-    <t>NcImpresoraPos</t>
-  </si>
-  <si>
-    <t>Numero de caracteres de la impresora de pos por defecto</t>
+    <t>LogoImpresora</t>
+  </si>
+  <si>
+    <t>Logo que se imprimira</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
-    <t>LogoImpresora</t>
-  </si>
-  <si>
-    <t>Logo que se imprimira</t>
-  </si>
-  <si>
     <t>MinimoValorPDinero</t>
   </si>
   <si>
@@ -217,15 +211,6 @@
     <t>Valor para almacenar fidelidad</t>
   </si>
   <si>
-    <t>DineroPredeterminado</t>
-  </si>
-  <si>
-    <t>Valores de preset predeterminados dinero</t>
-  </si>
-  <si>
-    <t>5000|10000|20000</t>
-  </si>
-  <si>
     <t>CierreTurnoCorte</t>
   </si>
   <si>
@@ -241,19 +226,31 @@
     <t>D1</t>
   </si>
   <si>
-    <t>NumeroDecimalesV</t>
-  </si>
-  <si>
-    <t>Decimales en volumen</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>NumeroDecimalesD</t>
-  </si>
-  <si>
-    <t>Decimales en dinero</t>
+    <t>simbolovolumen</t>
+  </si>
+  <si>
+    <t>Simbolo de volumen</t>
+  </si>
+  <si>
+    <t>G/L</t>
+  </si>
+  <si>
+    <t>preset1</t>
+  </si>
+  <si>
+    <t>preset rapido 1</t>
+  </si>
+  <si>
+    <t>preset2</t>
+  </si>
+  <si>
+    <t>preset rapido 2</t>
+  </si>
+  <si>
+    <t>preset3</t>
+  </si>
+  <si>
+    <t>preset rapido 3</t>
   </si>
   <si>
     <t>Pk-IdConfiguracion</t>
@@ -265,12 +262,6 @@
     <t>Indica si la opcion de turnos se encuentra activa</t>
   </si>
   <si>
-    <t>NumeroCopiasCliente</t>
-  </si>
-  <si>
-    <t>Numero de copias en un recibo cliente</t>
-  </si>
-  <si>
     <t>UsuarioSatelite</t>
   </si>
   <si>
@@ -334,12 +325,6 @@
     <t>Activa la escritura de estados</t>
   </si>
   <si>
-    <t>DiferenciaSateliteTurnoCorte</t>
-  </si>
-  <si>
-    <t>Diferencia en la solicitud satelite en  ambio de turno a corte</t>
-  </si>
-  <si>
     <t>CodigoEdsGasonet</t>
   </si>
   <si>
@@ -505,10 +490,16 @@
     <t>UnidadMoneda</t>
   </si>
   <si>
+    <t>activa</t>
+  </si>
+  <si>
     <t>$</t>
   </si>
   <si>
     <t>Unidad de dinero pesos</t>
+  </si>
+  <si>
+    <t>t/f</t>
   </si>
   <si>
     <t>Q</t>
@@ -747,20 +738,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.7857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.4540816326531"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.4081632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1003,35 +994,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="14" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>0</v>
@@ -1048,16 +1019,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>10</v>
@@ -1068,16 +1039,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>48</v>
-      </c>
       <c r="E16" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>10</v>
@@ -1088,16 +1059,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="E17" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>52</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>10</v>
@@ -1108,13 +1079,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>55</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>9</v>
@@ -1128,10 +1099,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>10</v>
@@ -1148,10 +1119,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>27</v>
@@ -1168,10 +1139,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>27</v>
@@ -1180,26 +1151,6 @@
         <v>9</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1208,10 +1159,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>10</v>
@@ -1228,13 +1179,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>9</v>
@@ -1243,40 +1194,60 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>72</v>
+        <v>67</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048576" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1301,23 +1272,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -1339,20 +1310,20 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.4795918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1372,47 +1343,37 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="D2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>9</v>
@@ -1423,13 +1384,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>9</v>
@@ -1440,10 +1401,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>130</v>
@@ -1457,13 +1418,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>9</v>
@@ -1474,10 +1435,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>5848</v>
@@ -1491,13 +1452,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>9</v>
@@ -1508,13 +1469,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>9</v>
@@ -1525,44 +1486,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>40</v>
-      </c>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>11111</v>
@@ -1576,10 +1527,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>11111</v>
@@ -1593,10 +1544,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>10000</v>
@@ -1610,13 +1561,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>9</v>
@@ -1627,10 +1578,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>123456</v>
@@ -1644,10 +1595,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>21</v>
@@ -1675,18 +1626,18 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1697,7 +1648,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1705,7 +1656,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1713,7 +1664,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1735,18 +1686,18 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>40</v>
@@ -1757,7 +1708,7 @@
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>40</v>
@@ -1768,7 +1719,7 @@
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>40</v>
@@ -1779,7 +1730,7 @@
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>40</v>
@@ -1790,7 +1741,7 @@
     </row>
     <row r="5" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>40</v>
@@ -1801,10 +1752,10 @@
     </row>
     <row r="6" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>10</v>
@@ -1812,7 +1763,7 @@
     </row>
     <row r="7" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>40</v>
@@ -1823,7 +1774,7 @@
     </row>
     <row r="8" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>40</v>
@@ -1834,7 +1785,7 @@
     </row>
     <row r="9" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>40</v>
@@ -1867,18 +1818,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1886,10 +1837,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1897,10 +1848,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1908,10 +1859,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1919,10 +1870,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1930,10 +1881,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1941,10 +1892,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1952,10 +1903,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1963,10 +1914,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1974,10 +1925,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1985,10 +1936,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1996,10 +1947,10 @@
         <v>100</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2021,18 +1972,18 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>40</v>
@@ -2049,13 +2000,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2074,29 +2025,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.1326530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2104,10 +2058,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2115,10 +2072,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2126,10 +2086,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2137,10 +2100,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2148,10 +2114,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2159,10 +2128,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2170,10 +2142,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2181,10 +2156,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2211,98 +2189,98 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2330,8 +2308,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.1224489795918"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
